--- a/excel_sample_data/InventoryIssues_SampleData.xlsx
+++ b/excel_sample_data/InventoryIssues_SampleData.xlsx
@@ -494,27 +494,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>کالا الف</t>
+          <t>کالا ج</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>243453</v>
+        <v>270318</v>
       </c>
       <c r="H2" t="n">
-        <v>15094086</v>
+        <v>24328620</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2024-10-25 00:00:00</t>
+          <t>2024-12-12 00:00:00</t>
         </is>
       </c>
     </row>
@@ -548,36 +548,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-06-09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا الف</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="G3" t="n">
-        <v>404346</v>
+        <v>196496</v>
       </c>
       <c r="H3" t="n">
-        <v>39625908</v>
+        <v>13951216</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC002</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه اداری</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2024-04-03 00:00:00</t>
+          <t>2024-06-09 00:00:00</t>
         </is>
       </c>
     </row>
@@ -602,36 +602,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-11-17</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>233244</v>
+        <v>218537</v>
       </c>
       <c r="H4" t="n">
-        <v>2565684</v>
+        <v>218537</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>CC001</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>مرکز هزینه تولید</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2024-02-05 00:00:00</t>
+          <t>2024-11-17 00:00:00</t>
         </is>
       </c>
     </row>
@@ -656,36 +656,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="G5" t="n">
-        <v>251993</v>
+        <v>280916</v>
       </c>
       <c r="H5" t="n">
-        <v>4031888</v>
+        <v>25844272</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC001</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه تولید</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-06-20 00:00:00</t>
+          <t>2024-12-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -710,27 +710,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا الف</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G6" t="n">
-        <v>347301</v>
+        <v>338958</v>
       </c>
       <c r="H6" t="n">
-        <v>19796157</v>
+        <v>21354354</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2024-09-02 00:00:00</t>
+          <t>2024-04-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -764,27 +764,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا ج</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>320177</v>
+        <v>285090</v>
       </c>
       <c r="H7" t="n">
-        <v>28175576</v>
+        <v>6557070</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2024-11-27 00:00:00</t>
+          <t>2024-02-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -818,36 +818,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G8" t="n">
-        <v>126565</v>
+        <v>73983</v>
       </c>
       <c r="H8" t="n">
-        <v>7467335</v>
+        <v>3033303</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC002</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه اداری</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2024-03-01 00:00:00</t>
+          <t>2024-07-24 00:00:00</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -886,22 +886,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>54024</v>
+        <v>273677</v>
       </c>
       <c r="H9" t="n">
-        <v>2647176</v>
+        <v>821031</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC002</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه اداری</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2024-12-29 00:00:00</t>
+          <t>2024-04-09 00:00:00</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
-        <v>494399</v>
+        <v>444767</v>
       </c>
       <c r="H10" t="n">
-        <v>44990309</v>
+        <v>16011612</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2024-07-07 00:00:00</t>
+          <t>2024-01-08 00:00:00</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-02-11</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G11" t="n">
-        <v>88213</v>
+        <v>460679</v>
       </c>
       <c r="H11" t="n">
-        <v>6439549</v>
+        <v>27640740</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2024-07-21 00:00:00</t>
+          <t>2024-02-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1034,36 +1034,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-06-09</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>302065</v>
+        <v>109832</v>
       </c>
       <c r="H12" t="n">
-        <v>4228910</v>
+        <v>2196640</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC002</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه اداری</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2024-06-03 00:00:00</t>
+          <t>2024-06-09 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1088,36 +1088,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-10-18</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="G13" t="n">
-        <v>73152</v>
+        <v>21164</v>
       </c>
       <c r="H13" t="n">
-        <v>1975104</v>
+        <v>1185184</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC001</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه تولید</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2024-06-04 00:00:00</t>
+          <t>2024-10-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1142,36 +1142,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>129934</v>
+        <v>252560</v>
       </c>
       <c r="H14" t="n">
-        <v>7925974</v>
+        <v>505120</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>CC001</t>
+          <t>CC002</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>مرکز هزینه تولید</t>
+          <t>مرکز هزینه اداری</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-01-22 00:00:00</t>
+          <t>2024-06-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1210,22 +1210,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="G15" t="n">
-        <v>399767</v>
+        <v>116129</v>
       </c>
       <c r="H15" t="n">
-        <v>6796039</v>
+        <v>11148384</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>CC001</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>مرکز هزینه تولید</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2024-02-21 00:00:00</t>
+          <t>2024-08-14 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1250,36 +1250,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>43</v>
       </c>
       <c r="G16" t="n">
-        <v>286633</v>
+        <v>49599</v>
       </c>
       <c r="H16" t="n">
-        <v>12325219</v>
+        <v>2132757</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC001</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه تولید</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2024-09-28 00:00:00</t>
+          <t>2024-02-07 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-08-09</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1318,22 +1318,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G17" t="n">
-        <v>264126</v>
+        <v>170616</v>
       </c>
       <c r="H17" t="n">
-        <v>20865954</v>
+        <v>15014208</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC001</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه تولید</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2024-08-09 00:00:00</t>
+          <t>2024-04-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1358,36 +1358,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا الف</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="G18" t="n">
-        <v>447046</v>
+        <v>276719</v>
       </c>
       <c r="H18" t="n">
-        <v>19222978</v>
+        <v>26565024</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CC001</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>مرکز هزینه تولید</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2024-10-29 00:00:00</t>
+          <t>2024-06-20 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1412,36 +1412,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>275863</v>
+        <v>100704</v>
       </c>
       <c r="H19" t="n">
-        <v>6344849</v>
+        <v>2618304</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2024-07-18 00:00:00</t>
+          <t>2024-11-25 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1466,36 +1466,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>کالا الف</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G20" t="n">
-        <v>433821</v>
+        <v>342369</v>
       </c>
       <c r="H20" t="n">
-        <v>33404217</v>
+        <v>18830295</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>CC001</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>مرکز هزینه تولید</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2024-09-21 00:00:00</t>
+          <t>2024-10-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-09</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1534,22 +1534,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G21" t="n">
-        <v>404708</v>
+        <v>319901</v>
       </c>
       <c r="H21" t="n">
-        <v>5665912</v>
+        <v>6717921</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2024-04-02 00:00:00</t>
+          <t>2024-05-09 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1574,36 +1574,36 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-05-05</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>کالا الف</t>
+          <t>کالا ج</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G22" t="n">
-        <v>499905</v>
+        <v>415530</v>
       </c>
       <c r="H22" t="n">
-        <v>14497245</v>
+        <v>13712490</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC002</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه اداری</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2024-07-21 00:00:00</t>
+          <t>2024-05-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1628,36 +1628,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-03-31</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا الف</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G23" t="n">
-        <v>75134</v>
+        <v>169211</v>
       </c>
       <c r="H23" t="n">
-        <v>5334514</v>
+        <v>10152660</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-03-31 00:00:00</t>
+          <t>2024-09-25 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1682,27 +1682,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>کالا الف</t>
+          <t>کالا ج</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G24" t="n">
-        <v>115964</v>
+        <v>323663</v>
       </c>
       <c r="H24" t="n">
-        <v>5218380</v>
+        <v>15212161</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2024-05-08 00:00:00</t>
+          <t>2024-05-31 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1736,36 +1736,36 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G25" t="n">
-        <v>442139</v>
+        <v>179843</v>
       </c>
       <c r="H25" t="n">
-        <v>13264170</v>
+        <v>4496075</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>CC001</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>مرکز هزینه تولید</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2024-05-08 00:00:00</t>
+          <t>2024-10-03 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1790,27 +1790,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G26" t="n">
-        <v>143092</v>
+        <v>439567</v>
       </c>
       <c r="H26" t="n">
-        <v>10588808</v>
+        <v>32967525</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2024-03-18 00:00:00</t>
+          <t>2024-10-01 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1844,36 +1844,36 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا الف</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>129987</v>
+        <v>32976</v>
       </c>
       <c r="H27" t="n">
-        <v>12348765</v>
+        <v>32976</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2024-07-09 00:00:00</t>
+          <t>2024-05-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1898,27 +1898,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>447622</v>
+        <v>140627</v>
       </c>
       <c r="H28" t="n">
-        <v>17457258</v>
+        <v>3093794</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2024-07-19 00:00:00</t>
+          <t>2024-01-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1952,36 +1952,36 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا الف</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>92</v>
       </c>
       <c r="G29" t="n">
-        <v>80185</v>
+        <v>284311</v>
       </c>
       <c r="H29" t="n">
-        <v>7377020</v>
+        <v>26156612</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2024-10-30 00:00:00</t>
+          <t>2024-07-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2020,13 +2020,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G30" t="n">
-        <v>412813</v>
+        <v>65761</v>
       </c>
       <c r="H30" t="n">
-        <v>7430634</v>
+        <v>3682616</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2024-10-08 00:00:00</t>
+          <t>2024-09-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2060,27 +2060,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا ج</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G31" t="n">
-        <v>484232</v>
+        <v>94006</v>
       </c>
       <c r="H31" t="n">
-        <v>43580880</v>
+        <v>7990510</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2024-07-24 00:00:00</t>
+          <t>2024-07-04 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2114,27 +2114,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="G32" t="n">
-        <v>432339</v>
+        <v>440193</v>
       </c>
       <c r="H32" t="n">
-        <v>30696069</v>
+        <v>16287141</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-08-30 00:00:00</t>
+          <t>2024-06-10 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-07-14</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2182,22 +2182,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G33" t="n">
-        <v>351802</v>
+        <v>170309</v>
       </c>
       <c r="H33" t="n">
-        <v>18293704</v>
+        <v>12091939</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00:00</t>
+          <t>2024-07-14 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2222,36 +2222,36 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا ج</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>289724</v>
+        <v>417191</v>
       </c>
       <c r="H34" t="n">
-        <v>7822548</v>
+        <v>41719100</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2024-01-04 00:00:00</t>
+          <t>2024-04-10 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2276,36 +2276,36 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="G35" t="n">
-        <v>57859</v>
+        <v>333474</v>
       </c>
       <c r="H35" t="n">
-        <v>1215039</v>
+        <v>30346134</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2024-03-12 00:00:00</t>
+          <t>2024-07-07 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2344,22 +2344,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="G36" t="n">
-        <v>423815</v>
+        <v>315747</v>
       </c>
       <c r="H36" t="n">
-        <v>14409710</v>
+        <v>24628266</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC002</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه اداری</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2024-12-04 00:00:00</t>
+          <t>2024-01-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024-11-03</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2398,22 +2398,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="G37" t="n">
-        <v>302075</v>
+        <v>386445</v>
       </c>
       <c r="H37" t="n">
-        <v>23561850</v>
+        <v>8888235</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC001</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه تولید</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2024-11-03 00:00:00</t>
+          <t>2024-04-09 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2438,36 +2438,36 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-02-23</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا الف</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G38" t="n">
-        <v>272312</v>
+        <v>59330</v>
       </c>
       <c r="H38" t="n">
-        <v>10620168</v>
+        <v>4509080</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC001</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه تولید</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2024-09-23 00:00:00</t>
+          <t>2024-02-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2506,22 +2506,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G39" t="n">
-        <v>162030</v>
+        <v>348777</v>
       </c>
       <c r="H39" t="n">
-        <v>6967290</v>
+        <v>8021871</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2024-10-07 00:00:00</t>
+          <t>2024-05-04 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2546,36 +2546,36 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2024-11-23</t>
+          <t>2024-06-02</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>کالا الف</t>
+          <t>کالا ج</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G40" t="n">
-        <v>412243</v>
+        <v>57820</v>
       </c>
       <c r="H40" t="n">
-        <v>6183645</v>
+        <v>1734600</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2024-11-23 00:00:00</t>
+          <t>2024-06-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2600,27 +2600,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="G41" t="n">
-        <v>141468</v>
+        <v>206482</v>
       </c>
       <c r="H41" t="n">
-        <v>12873588</v>
+        <v>11356510</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-01-30 00:00:00</t>
+          <t>2024-12-17 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2654,36 +2654,36 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024-08-10</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>کالا الف</t>
+          <t>کالا ج</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G42" t="n">
-        <v>273743</v>
+        <v>24350</v>
       </c>
       <c r="H42" t="n">
-        <v>9033519</v>
+        <v>876600</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2024-08-10 00:00:00</t>
+          <t>2024-09-30 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2708,36 +2708,36 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-06-16</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>کالا الف</t>
+          <t>کالا ج</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G43" t="n">
-        <v>456763</v>
+        <v>478300</v>
       </c>
       <c r="H43" t="n">
-        <v>39738381</v>
+        <v>44003600</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2024-06-16 00:00:00</t>
+          <t>2024-02-20 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2762,27 +2762,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>کالا الف</t>
+          <t>کالا ج</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="G44" t="n">
-        <v>440760</v>
+        <v>416180</v>
       </c>
       <c r="H44" t="n">
-        <v>22478760</v>
+        <v>40369460</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2024-08-07 00:00:00</t>
+          <t>2024-03-30 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2830,13 +2830,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G45" t="n">
-        <v>182826</v>
+        <v>75723</v>
       </c>
       <c r="H45" t="n">
-        <v>731304</v>
+        <v>1590183</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2024-07-02 00:00:00</t>
+          <t>2024-02-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2870,36 +2870,36 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-06-02</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="G46" t="n">
-        <v>425799</v>
+        <v>245120</v>
       </c>
       <c r="H46" t="n">
-        <v>42579900</v>
+        <v>12991360</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC001</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه تولید</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2024-04-24 00:00:00</t>
+          <t>2024-06-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2924,36 +2924,36 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024-06-01</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا الف</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G47" t="n">
-        <v>307079</v>
+        <v>349875</v>
       </c>
       <c r="H47" t="n">
-        <v>2149553</v>
+        <v>2799000</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC001</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه تولید</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2024-06-01 00:00:00</t>
+          <t>2024-07-10 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2978,36 +2978,36 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-01-02</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا الف</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G48" t="n">
-        <v>330362</v>
+        <v>255258</v>
       </c>
       <c r="H48" t="n">
-        <v>11562670</v>
+        <v>3828870</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2024-06-24 00:00:00</t>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3032,27 +3032,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="G49" t="n">
-        <v>391674</v>
+        <v>341310</v>
       </c>
       <c r="H49" t="n">
-        <v>2350044</v>
+        <v>26622180</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2024-08-04 00:00:00</t>
+          <t>2024-04-06 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3086,36 +3086,36 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G50" t="n">
-        <v>226734</v>
+        <v>16360</v>
       </c>
       <c r="H50" t="n">
-        <v>3401010</v>
+        <v>965240</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>CC001</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>مرکز هزینه تولید</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2024-12-11 00:00:00</t>
+          <t>2024-12-10 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3140,27 +3140,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2024-11-19</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا الف</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G51" t="n">
-        <v>233994</v>
+        <v>37560</v>
       </c>
       <c r="H51" t="n">
-        <v>11699700</v>
+        <v>1953120</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2024-11-19 00:00:00</t>
+          <t>2024-05-31 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3194,36 +3194,36 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2024-12-14</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G52" t="n">
-        <v>162398</v>
+        <v>213313</v>
       </c>
       <c r="H52" t="n">
-        <v>4709542</v>
+        <v>6826016</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC002</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه اداری</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2024-12-14 00:00:00</t>
+          <t>2024-06-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3262,22 +3262,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G53" t="n">
-        <v>214824</v>
+        <v>146278</v>
       </c>
       <c r="H53" t="n">
-        <v>1718592</v>
+        <v>5851120</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC002</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه اداری</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2024-08-30 00:00:00</t>
+          <t>2024-01-30 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3316,22 +3316,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G54" t="n">
-        <v>46122</v>
+        <v>260194</v>
       </c>
       <c r="H54" t="n">
-        <v>599586</v>
+        <v>17953386</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>CC001</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>مرکز هزینه تولید</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2024-04-01 00:00:00</t>
+          <t>2024-08-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3356,27 +3356,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G55" t="n">
-        <v>287862</v>
+        <v>43024</v>
       </c>
       <c r="H55" t="n">
-        <v>6908688</v>
+        <v>731408</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2024-11-12 00:00:00</t>
+          <t>2024-07-30 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3410,27 +3410,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>کالا الف</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G56" t="n">
-        <v>144178</v>
+        <v>310591</v>
       </c>
       <c r="H56" t="n">
-        <v>5478764</v>
+        <v>16150732</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2024-10-02 00:00:00</t>
+          <t>2024-12-03 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3464,27 +3464,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G57" t="n">
-        <v>257027</v>
+        <v>178337</v>
       </c>
       <c r="H57" t="n">
-        <v>14650539</v>
+        <v>11056894</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2024-05-02 00:00:00</t>
+          <t>2024-08-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3518,36 +3518,36 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2024-11-24</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا الف</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G58" t="n">
-        <v>479568</v>
+        <v>198051</v>
       </c>
       <c r="H58" t="n">
-        <v>21100992</v>
+        <v>9506448</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC001</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه تولید</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2024-06-22 00:00:00</t>
+          <t>2024-11-24 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3586,22 +3586,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G59" t="n">
-        <v>487714</v>
+        <v>26982</v>
       </c>
       <c r="H59" t="n">
-        <v>20483988</v>
+        <v>1187208</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>CC001</t>
+          <t>CC002</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>مرکز هزینه تولید</t>
+          <t>مرکز هزینه اداری</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-05-01 00:00:00</t>
+          <t>2024-03-17 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3640,22 +3640,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G60" t="n">
-        <v>365981</v>
+        <v>367313</v>
       </c>
       <c r="H60" t="n">
-        <v>10613449</v>
+        <v>14692520</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC001</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه تولید</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2024-07-10 00:00:00</t>
+          <t>2024-08-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3680,36 +3680,36 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G61" t="n">
-        <v>11644</v>
+        <v>135993</v>
       </c>
       <c r="H61" t="n">
-        <v>244524</v>
+        <v>4351776</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC002</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه اداری</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2024-07-12 00:00:00</t>
+          <t>2024-02-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3734,36 +3734,36 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-14</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="G62" t="n">
-        <v>165197</v>
+        <v>58158</v>
       </c>
       <c r="H62" t="n">
-        <v>14702533</v>
+        <v>1453950</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>CC001</t>
+          <t>CC002</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>مرکز هزینه تولید</t>
+          <t>مرکز هزینه اداری</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2024-08-27 00:00:00</t>
+          <t>2024-09-14 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3788,27 +3788,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>کالا الف</t>
+          <t>کالا ج</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="G63" t="n">
-        <v>344119</v>
+        <v>381246</v>
       </c>
       <c r="H63" t="n">
-        <v>7226499</v>
+        <v>30880926</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2024-06-10 00:00:00</t>
+          <t>2024-06-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3842,36 +3842,36 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-05-20</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="G64" t="n">
-        <v>176314</v>
+        <v>75560</v>
       </c>
       <c r="H64" t="n">
-        <v>6876246</v>
+        <v>4684720</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>CC001</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>مرکز هزینه تولید</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2024-05-17 00:00:00</t>
+          <t>2024-05-20 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3896,36 +3896,36 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="G65" t="n">
-        <v>14300</v>
+        <v>337740</v>
       </c>
       <c r="H65" t="n">
-        <v>42900</v>
+        <v>19251180</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC001</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه تولید</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2024-09-08 00:00:00</t>
+          <t>2024-10-14 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3950,27 +3950,27 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا الف</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G66" t="n">
-        <v>493846</v>
+        <v>208189</v>
       </c>
       <c r="H66" t="n">
-        <v>43952294</v>
+        <v>2498268</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2024-04-30 00:00:00</t>
+          <t>2024-03-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4004,27 +4004,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا ج</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G67" t="n">
-        <v>473331</v>
+        <v>66877</v>
       </c>
       <c r="H67" t="n">
-        <v>38813142</v>
+        <v>5617668</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2024-10-04 00:00:00</t>
+          <t>2024-04-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4058,36 +4058,36 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="G68" t="n">
-        <v>213717</v>
+        <v>278380</v>
       </c>
       <c r="H68" t="n">
-        <v>1709736</v>
+        <v>15032520</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2024-12-01 00:00:00</t>
+          <t>2024-07-01 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4126,22 +4126,22 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G69" t="n">
-        <v>225145</v>
+        <v>429358</v>
       </c>
       <c r="H69" t="n">
-        <v>18236745</v>
+        <v>32631208</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>CC001</t>
+          <t>CC002</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>مرکز هزینه تولید</t>
+          <t>مرکز هزینه اداری</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2024-10-17 00:00:00</t>
+          <t>2024-07-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4166,27 +4166,27 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا الف</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G70" t="n">
-        <v>491604</v>
+        <v>355559</v>
       </c>
       <c r="H70" t="n">
-        <v>33429072</v>
+        <v>27378043</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2024-11-13 00:00:00</t>
+          <t>2024-12-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4220,36 +4220,36 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-05-05</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا ج</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G71" t="n">
-        <v>486241</v>
+        <v>372544</v>
       </c>
       <c r="H71" t="n">
-        <v>30146942</v>
+        <v>9313600</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC002</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه اداری</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2024-08-08 00:00:00</t>
+          <t>2024-05-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4274,36 +4274,36 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G72" t="n">
-        <v>352473</v>
+        <v>469024</v>
       </c>
       <c r="H72" t="n">
-        <v>31017624</v>
+        <v>16884864</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2024-12-20 00:00:00</t>
+          <t>2024-08-10 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4328,27 +4328,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا الف</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>257044</v>
+        <v>256207</v>
       </c>
       <c r="H73" t="n">
-        <v>23133960</v>
+        <v>2562070</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2024-12-23 00:00:00</t>
+          <t>2024-02-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G74" t="n">
-        <v>21508</v>
+        <v>205371</v>
       </c>
       <c r="H74" t="n">
-        <v>1849688</v>
+        <v>18072648</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2024-10-12 00:00:00</t>
+          <t>2024-07-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4436,36 +4436,36 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="G75" t="n">
-        <v>148690</v>
+        <v>139246</v>
       </c>
       <c r="H75" t="n">
-        <v>743450</v>
+        <v>8633252</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC003</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه فروش</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2024-04-13 00:00:00</t>
+          <t>2024-10-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2024-08-16</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4504,13 +4504,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G76" t="n">
-        <v>451603</v>
+        <v>372424</v>
       </c>
       <c r="H76" t="n">
-        <v>18515723</v>
+        <v>21228168</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2024-08-16 00:00:00</t>
+          <t>2024-10-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4544,27 +4544,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G77" t="n">
-        <v>334960</v>
+        <v>484794</v>
       </c>
       <c r="H77" t="n">
-        <v>13063440</v>
+        <v>25209288</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2024-03-27 00:00:00</t>
+          <t>2024-02-26 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4598,27 +4598,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ITEM004</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>کالا د</t>
+          <t>کالا ب</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G78" t="n">
-        <v>255204</v>
+        <v>480908</v>
       </c>
       <c r="H78" t="n">
-        <v>14291424</v>
+        <v>27892664</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2024-08-03 00:00:00</t>
+          <t>2024-03-09 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4652,36 +4652,36 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G79" t="n">
-        <v>211853</v>
+        <v>34570</v>
       </c>
       <c r="H79" t="n">
-        <v>6779296</v>
+        <v>795110</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>CC002</t>
+          <t>CC001</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>مرکز هزینه اداری</t>
+          <t>مرکز هزینه تولید</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2024-10-05 00:00:00</t>
+          <t>2024-07-04 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4706,27 +4706,27 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>کالا ب</t>
+          <t>کالا ج</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="G80" t="n">
-        <v>28697</v>
+        <v>279940</v>
       </c>
       <c r="H80" t="n">
-        <v>2726215</v>
+        <v>6158680</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2024-04-16 00:00:00</t>
+          <t>2024-08-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4760,36 +4760,36 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM004</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>کالا ج</t>
+          <t>کالا د</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G81" t="n">
-        <v>356312</v>
+        <v>74341</v>
       </c>
       <c r="H81" t="n">
-        <v>6057304</v>
+        <v>892092</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>CC003</t>
+          <t>CC001</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>مرکز هزینه فروش</t>
+          <t>مرکز هزینه تولید</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2024-02-10 00:00:00</t>
+          <t>2024-01-12 00:00:00</t>
         </is>
       </c>
     </row>
